--- a/biology/Botanique/Grand_Parc_de_l'Ouest/Grand_Parc_de_l'Ouest.xlsx
+++ b/biology/Botanique/Grand_Parc_de_l'Ouest/Grand_Parc_de_l'Ouest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grand_Parc_de_l%27Ouest</t>
+          <t>Grand_Parc_de_l'Ouest</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,19 +490,21 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Grand Parc de l'Ouest est un parc proposé dans l'Ouest-de-l'Île de Montréal, Québec, Canada.
-Le parc prévu s’étend sur deux arrondissements (Pierrefonds-Roxboro et L'Île-Bizard–Sainte-Geneviève) et quatre villes (Sainte-Anne-de-Bellevue, Kirkland, Beaconsfield et la municipalité de village de Senneville). Il se compose de parcs existants ainsi que de nouveaux secteurs à mettre en valeur. Avec plus de 3 100 hectares, ou l’équivalent de 15 fois la superficie du parc du Mont-Royal, il a le potentiel de devenir le plus grand parc de compétence municipale du Canada[1].
+Le parc prévu s’étend sur deux arrondissements (Pierrefonds-Roxboro et L'Île-Bizard–Sainte-Geneviève) et quatre villes (Sainte-Anne-de-Bellevue, Kirkland, Beaconsfield et la municipalité de village de Senneville). Il se compose de parcs existants ainsi que de nouveaux secteurs à mettre en valeur. Avec plus de 3 100 hectares, ou l’équivalent de 15 fois la superficie du parc du Mont-Royal, il a le potentiel de devenir le plus grand parc de compétence municipale du Canada.
 Annoncé le 8 août 2019 par l'administration Plante, le plan est de combiner ce qui suit en un seul grand parc :
 Parc-nature de l'Anse-à-l'Orme
 Parc-nature du Bois-de-l'Île-Bizard
 Parc agricole du Bois-de-la-Roche
 Parc-nature du Cap-Saint-Jacques
 Parc des Rapides-du-Cheval-Blanc
-Autres zones d'intérêt situées dans les arrondissements et les municipalités voisins[2],[3].
-En aout 2019, le gouvernement fédéral annonce son intention d’injecter 50 millions de dollars dans sa réalisation[4]. En décembre 2019, la Ville de Montréal s’est entendue avec le promoteur Grilli Développement afin d’acquérir un  terrain de 140 hectares dans le secteur Pierrefonds-Ouest au coût de 73 millions de dollars pour le parc[5].
+Autres zones d'intérêt situées dans les arrondissements et les municipalités voisins,.
+En aout 2019, le gouvernement fédéral annonce son intention d’injecter 50 millions de dollars dans sa réalisation. En décembre 2019, la Ville de Montréal s’est entendue avec le promoteur Grilli Développement afin d’acquérir un  terrain de 140 hectares dans le secteur Pierrefonds-Ouest au coût de 73 millions de dollars pour le parc.
 </t>
         </is>
       </c>
@@ -503,7 +515,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grand_Parc_de_l%27Ouest</t>
+          <t>Grand_Parc_de_l'Ouest</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,7 +533,9 @@
           <t>References</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Ville de Montréal, « Le Grand parc de l’Ouest : pour protéger les milieux naturels et la biodiversité », sur montreal.ca (consulté le 7 avril 2024)
